--- a/doc/GDS_Batch_Order.xlsx
+++ b/doc/GDS_Batch_Order.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t xml:space="preserve">Product ID </t>
   </si>
@@ -34,12 +34,6 @@
   </si>
   <si>
     <t>Quantity</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Amount</t>
   </si>
   <si>
     <t>Tom</t>
@@ -131,8 +125,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -154,7 +156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -162,6 +164,10 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -169,6 +175,10 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -498,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -511,9 +521,9 @@
     <col min="6" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -525,13 +535,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -539,14 +549,8 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>13579</v>
       </c>
@@ -554,16 +558,16 @@
         <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
       </c>
       <c r="G2">
         <v>13579</v>
@@ -574,14 +578,8 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>13579</v>
       </c>
@@ -589,16 +587,16 @@
         <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
       </c>
       <c r="G3">
         <v>13579</v>
@@ -607,16 +605,10 @@
         <v>123456789</v>
       </c>
       <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>24680</v>
       </c>
@@ -624,16 +616,16 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>24680</v>
@@ -644,34 +636,28 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:9">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:9">
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:9">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:9">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:9">
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>13579</v>
       </c>
@@ -679,16 +665,16 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" t="s">
         <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
       </c>
       <c r="G10">
         <v>13579</v>
@@ -699,14 +685,8 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>13579</v>
       </c>
@@ -714,16 +694,16 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
       </c>
       <c r="G11">
         <v>13579</v>
@@ -734,14 +714,8 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>24680</v>
       </c>
@@ -749,16 +723,16 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G12">
         <v>24680</v>
@@ -769,24 +743,18 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:9">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/doc/GDS_Batch_Order.xlsx
+++ b/doc/GDS_Batch_Order.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="400" windowWidth="30320" windowHeight="19620" tabRatio="500"/>
+    <workbookView xWindow="7600" yWindow="2520" windowWidth="30320" windowHeight="19620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -555,7 +555,7 @@
         <v>13579</v>
       </c>
       <c r="B2">
-        <v>33</v>
+        <v>1501</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -584,7 +584,7 @@
         <v>13579</v>
       </c>
       <c r="B3">
-        <v>42</v>
+        <v>1501</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -613,7 +613,7 @@
         <v>24680</v>
       </c>
       <c r="B4">
-        <v>33</v>
+        <v>1501</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -662,7 +662,7 @@
         <v>13579</v>
       </c>
       <c r="B10">
-        <v>33</v>
+        <v>1501</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -691,7 +691,7 @@
         <v>13579</v>
       </c>
       <c r="B11">
-        <v>42</v>
+        <v>1501</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -720,7 +720,7 @@
         <v>24680</v>
       </c>
       <c r="B12">
-        <v>33</v>
+        <v>1501</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>

--- a/doc/GDS_Batch_Order.xlsx
+++ b/doc/GDS_Batch_Order.xlsx
@@ -125,8 +125,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -156,7 +158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -168,6 +170,7 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -179,6 +182,7 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -511,7 +515,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/doc/GDS_Batch_Order.xlsx
+++ b/doc/GDS_Batch_Order.xlsx
@@ -515,7 +515,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -559,7 +559,7 @@
         <v>13579</v>
       </c>
       <c r="B2">
-        <v>1501</v>
+        <v>100065</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -588,7 +588,7 @@
         <v>13579</v>
       </c>
       <c r="B3">
-        <v>1501</v>
+        <v>100065</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -617,7 +617,7 @@
         <v>24680</v>
       </c>
       <c r="B4">
-        <v>1501</v>
+        <v>100065</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -666,7 +666,7 @@
         <v>13579</v>
       </c>
       <c r="B10">
-        <v>1501</v>
+        <v>100065</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -695,7 +695,7 @@
         <v>13579</v>
       </c>
       <c r="B11">
-        <v>1501</v>
+        <v>100065</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -724,7 +724,7 @@
         <v>24680</v>
       </c>
       <c r="B12">
-        <v>1501</v>
+        <v>100065</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
